--- a/data/namelist.xlsx
+++ b/data/namelist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\刘笑\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\刘笑\Documents\GitHub\Excel_Processing\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D28D92A-9D66-487F-AB01-DE6DF96DF348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8A640B-A5E7-423C-AEB2-69AF3A0FAF1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3072" yWindow="2352" windowWidth="18708" windowHeight="10608" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8904" yWindow="2280" windowWidth="18708" windowHeight="10608" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="111">
   <si>
     <t>180210129</t>
   </si>
@@ -343,6 +343,21 @@
   </si>
   <si>
     <t>陈浩楠</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>学号</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>专业</t>
+  </si>
+  <si>
+    <t>班级</t>
   </si>
 </sst>
 </file>
@@ -370,12 +385,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -405,12 +426,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -693,80 +720,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection sqref="A1:G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1">
+    <row r="1" spans="1:7" ht="13.8" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" ht="13.8" customHeight="1">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="21.6">
+    <row r="3" spans="1:7" ht="21.6" customHeight="1">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="13.8" customHeight="1">
       <c r="A4" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
@@ -777,15 +804,15 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="13.8" customHeight="1">
       <c r="A5" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
@@ -796,15 +823,15 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="13.8" customHeight="1">
       <c r="A6" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
@@ -815,15 +842,15 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="13.8" customHeight="1">
       <c r="A7" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
@@ -834,15 +861,15 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="13.8" customHeight="1">
       <c r="A8" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
@@ -853,15 +880,15 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="13.8" customHeight="1">
       <c r="A9" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
@@ -872,15 +899,15 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="13.8" customHeight="1">
       <c r="A10" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>6</v>
@@ -891,15 +918,15 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="13.8" customHeight="1">
       <c r="A11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
@@ -910,15 +937,15 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="13.8" customHeight="1">
       <c r="A12" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>6</v>
@@ -929,15 +956,15 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="13.8" customHeight="1">
       <c r="A13" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>6</v>
@@ -948,15 +975,15 @@
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="13.8" customHeight="1">
       <c r="A14" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>6</v>
@@ -967,34 +994,34 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="13.8" customHeight="1">
       <c r="A15" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="13.8" customHeight="1">
       <c r="A16" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>6</v>
@@ -1005,15 +1032,15 @@
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="13.8" customHeight="1">
       <c r="A17" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
@@ -1024,15 +1051,15 @@
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="13.8" customHeight="1">
       <c r="A18" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>6</v>
@@ -1043,15 +1070,15 @@
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="13.8" customHeight="1">
       <c r="A19" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>6</v>
@@ -1062,15 +1089,15 @@
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="13.8" customHeight="1">
       <c r="A20" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>6</v>
@@ -1081,15 +1108,15 @@
       </c>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" ht="13.8" customHeight="1">
       <c r="A21" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>6</v>
@@ -1100,15 +1127,15 @@
       </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" ht="13.8" customHeight="1">
       <c r="A22" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>6</v>
@@ -1119,15 +1146,15 @@
       </c>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="13.8" customHeight="1">
       <c r="A23" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>6</v>
@@ -1138,15 +1165,15 @@
       </c>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" ht="13.8" customHeight="1">
       <c r="A24" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>6</v>
@@ -1157,15 +1184,15 @@
       </c>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" ht="21.6">
+    <row r="25" spans="1:7" ht="21.6" customHeight="1">
       <c r="A25" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>6</v>
@@ -1176,34 +1203,34 @@
       </c>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" ht="13.8" customHeight="1">
       <c r="A26" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" ht="13.8" customHeight="1">
       <c r="A27" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>6</v>
@@ -1214,34 +1241,34 @@
       </c>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" ht="21.6">
+    <row r="28" spans="1:7" ht="21.6" customHeight="1">
       <c r="A28" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" ht="13.8" customHeight="1">
       <c r="A29" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>6</v>
@@ -1252,15 +1279,15 @@
       </c>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" ht="13.8" customHeight="1">
       <c r="A30" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>6</v>
@@ -1271,15 +1298,15 @@
       </c>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" ht="13.8" customHeight="1">
       <c r="A31" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>6</v>
@@ -1290,15 +1317,15 @@
       </c>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" ht="13.8" customHeight="1">
       <c r="A32" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>6</v>
@@ -1309,34 +1336,34 @@
       </c>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" ht="13.8" customHeight="1">
       <c r="A33" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" ht="13.8" customHeight="1">
       <c r="A34" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>6</v>
@@ -1347,15 +1374,15 @@
       </c>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" ht="13.8" customHeight="1">
       <c r="A35" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>6</v>
@@ -1366,15 +1393,15 @@
       </c>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" ht="13.8" customHeight="1">
       <c r="A36" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>6</v>
@@ -1385,15 +1412,15 @@
       </c>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" ht="13.8" customHeight="1">
       <c r="A37" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>6</v>
@@ -1404,15 +1431,15 @@
       </c>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" ht="13.8" customHeight="1">
       <c r="A38" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>6</v>
@@ -1423,15 +1450,15 @@
       </c>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" ht="13.8" customHeight="1">
       <c r="A39" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>6</v>
@@ -1442,15 +1469,15 @@
       </c>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" ht="13.8" customHeight="1">
       <c r="A40" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>6</v>
@@ -1461,34 +1488,34 @@
       </c>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" ht="21.6">
+    <row r="41" spans="1:7" ht="21.6" customHeight="1">
       <c r="A41" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" ht="13.8" customHeight="1">
       <c r="A42" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>6</v>
@@ -1499,15 +1526,15 @@
       </c>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" ht="13.8" customHeight="1">
       <c r="A43" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>6</v>
@@ -1518,15 +1545,15 @@
       </c>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" ht="13.8" customHeight="1">
       <c r="A44" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>6</v>
@@ -1537,15 +1564,15 @@
       </c>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" ht="13.8" customHeight="1">
       <c r="A45" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>6</v>
@@ -1556,15 +1583,15 @@
       </c>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" ht="13.8" customHeight="1">
       <c r="A46" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>6</v>
@@ -1575,15 +1602,15 @@
       </c>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" ht="13.8" customHeight="1">
       <c r="A47" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>6</v>
@@ -1594,15 +1621,15 @@
       </c>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" ht="13.8" customHeight="1">
       <c r="A48" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>6</v>
@@ -1613,104 +1640,125 @@
       </c>
       <c r="G48" s="2"/>
     </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G49" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="96">
+  <mergeCells count="98">
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="F46:G46"/>
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="F47:G47"/>
     <mergeCell ref="D48:E48"/>
     <mergeCell ref="F48:G48"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
